--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43261,6 +43261,41 @@
         <v>95000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>349100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43296,6 +43296,41 @@
         <v>349100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>361500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43331,6 +43331,41 @@
         <v>361500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43366,6 +43366,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>139000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43401,6 +43401,41 @@
         <v>139000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>961600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43436,6 +43436,41 @@
         <v>961600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4040600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,41 @@
         <v>4040600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5305400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43506,6 +43506,41 @@
         <v>5305400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4836900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,41 @@
         <v>4836900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1560300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,41 @@
         <v>1560300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1218900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,41 @@
         <v>1218900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1456300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,41 @@
         <v>1456300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>878000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,76 @@
         <v>878000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1347200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1653600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,76 @@
         <v>1653600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1984200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7720800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43821,6 +43821,41 @@
         <v>7720800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1388900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43856,6 +43856,41 @@
         <v>1388900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>7939600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43891,6 +43891,41 @@
         <v>7939600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3841000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43926,6 +43926,41 @@
         <v>3841000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2395900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43961,6 +43961,76 @@
         <v>2395900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>4000500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2968500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44031,6 +44031,41 @@
         <v>2968500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1385200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44066,6 +44066,41 @@
         <v>1385200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>5664000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1594"/>
+  <dimension ref="A1:I1595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56456,6 +56456,41 @@
         <v>5664000</v>
       </c>
     </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1595" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>2769000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1595"/>
+  <dimension ref="A1:I1596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56491,6 +56491,41 @@
         <v>2769000</v>
       </c>
     </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1596" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>2055800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1596"/>
+  <dimension ref="A1:I1597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56526,6 +56526,41 @@
         <v>2055800</v>
       </c>
     </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1597" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>5579700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1597"/>
+  <dimension ref="A1:I1598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56561,6 +56561,41 @@
         <v>5579700</v>
       </c>
     </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1598" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>2774300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1598"/>
+  <dimension ref="A1:I1599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56596,6 +56596,41 @@
         <v>2774300</v>
       </c>
     </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1599" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>3151400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1599"/>
+  <dimension ref="A1:I1600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56631,6 +56631,41 @@
         <v>3151400</v>
       </c>
     </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1600" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>4834500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1600"/>
+  <dimension ref="A1:I1601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56666,6 +56666,41 @@
         <v>4834500</v>
       </c>
     </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1601" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>3233900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1601"/>
+  <dimension ref="A1:I1602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56701,6 +56701,41 @@
         <v>3233900</v>
       </c>
     </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1602" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>3468600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1602"/>
+  <dimension ref="A1:I1603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56736,6 +56736,41 @@
         <v>3468600</v>
       </c>
     </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1603" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>4678100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1603"/>
+  <dimension ref="A1:I1604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56771,6 +56771,41 @@
         <v>4678100</v>
       </c>
     </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1604" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>4076800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1604"/>
+  <dimension ref="A1:I1605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56806,6 +56806,41 @@
         <v>4076800</v>
       </c>
     </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1605" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>2851400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1605"/>
+  <dimension ref="A1:I1606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56841,6 +56841,41 @@
         <v>2851400</v>
       </c>
     </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1606" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>8734500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1606"/>
+  <dimension ref="A1:I1607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56876,6 +56876,41 @@
         <v>8734500</v>
       </c>
     </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1607" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>5058200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1607"/>
+  <dimension ref="A1:I1608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56911,6 +56911,41 @@
         <v>5058200</v>
       </c>
     </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1608" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>2054500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1608"/>
+  <dimension ref="A1:I1609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56946,6 +56946,41 @@
         <v>2054500</v>
       </c>
     </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1609" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>5341700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1609"/>
+  <dimension ref="A1:I1610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56981,6 +56981,41 @@
         <v>5341700</v>
       </c>
     </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1610" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>4145100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1610"/>
+  <dimension ref="A1:I1611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57016,6 +57016,41 @@
         <v>4145100</v>
       </c>
     </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1611" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>7056200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1611"/>
+  <dimension ref="A1:I1612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57051,6 +57051,41 @@
         <v>7056200</v>
       </c>
     </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1612" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>24147200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1612"/>
+  <dimension ref="A1:I1613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57086,6 +57086,41 @@
         <v>24147200</v>
       </c>
     </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1613" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>6344200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1613"/>
+  <dimension ref="A1:I1614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57121,6 +57121,41 @@
         <v>6344200</v>
       </c>
     </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1614" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>6596400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1614"/>
+  <dimension ref="A1:I1615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57156,6 +57156,41 @@
         <v>6596400</v>
       </c>
     </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1615" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>2581100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1615"/>
+  <dimension ref="A1:I1616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57191,6 +57191,41 @@
         <v>2581100</v>
       </c>
     </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1616" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>6954300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1616"/>
+  <dimension ref="A1:I1617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57226,6 +57226,41 @@
         <v>6954300</v>
       </c>
     </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1617" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>6058400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1617"/>
+  <dimension ref="A1:I1618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57261,6 +57261,41 @@
         <v>6058400</v>
       </c>
     </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1618" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>3025000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1618"/>
+  <dimension ref="A1:I1619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57296,6 +57296,41 @@
         <v>3025000</v>
       </c>
     </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1619" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>9058600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1619"/>
+  <dimension ref="A1:I1621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57331,6 +57331,76 @@
         <v>9058600</v>
       </c>
     </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1620" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>6171500</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1621" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>3024600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1621"/>
+  <dimension ref="A1:I1622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57401,6 +57401,41 @@
         <v>3024600</v>
       </c>
     </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1622" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>7455800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1622"/>
+  <dimension ref="A1:I1625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57436,6 +57436,111 @@
         <v>7455800</v>
       </c>
     </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1623" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>7335000</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1624" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>10489000</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1625" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>8962600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1625"/>
+  <dimension ref="A1:I1626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57541,6 +57541,41 @@
         <v>8962600</v>
       </c>
     </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1626" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>6890100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1626"/>
+  <dimension ref="A1:I1627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57576,6 +57576,41 @@
         <v>6890100</v>
       </c>
     </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1627" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>5511100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5242.xlsx
+++ b/data/5242.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1627"/>
+  <dimension ref="A1:I1630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57611,6 +57611,111 @@
         <v>5511100</v>
       </c>
     </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1628" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>6172500</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1629" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>6814600</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>5242</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>SOLID</t>
+        </is>
+      </c>
+      <c r="E1630" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>6522700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
